--- a/log/data_6o.xlsx
+++ b/log/data_6o.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,17 +506,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.0838413</t>
+          <t>0.0301686</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.00103</t>
+          <t>0.000617</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>10.2489</t>
+          <t>0.05315</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -526,12 +526,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>10.384</t>
+          <t>0.126513</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.00099</t>
+          <t>0.000308</t>
         </is>
       </c>
     </row>
@@ -548,32 +548,28 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>b6,b5,b3,b4,b2,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.0669382</t>
+          <t>0.0264108</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.000626</t>
+          <t>0.000564</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8.39133</t>
+          <t>0.019557</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -583,12 +579,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>8.50178</t>
+          <t>0.073781</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.000344</t>
+          <t>0.000893</t>
         </is>
       </c>
     </row>
@@ -605,28 +601,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0372898</t>
+          <t>0.0301196</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.000569</t>
+          <t>0.000656</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4.51818</t>
+          <t>0.047646</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -636,12 +636,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>4.5765</t>
+          <t>0.120939</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.005543</t>
+          <t>0.000585</t>
         </is>
       </c>
     </row>
@@ -658,28 +658,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.0389467</t>
+          <t>0.0295666</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.000418</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4.80297</t>
+          <t>0.029483</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -689,12 +693,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4.85759</t>
+          <t>0.099706</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.00071</t>
+          <t>0.000505</t>
         </is>
       </c>
     </row>
@@ -716,7 +720,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -726,17 +730,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.0722876</t>
+          <t>0.0293176</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.001034</t>
+          <t>0.000668</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>8.39187</t>
+          <t>0.034508</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -746,12 +750,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>8.51291</t>
+          <t>0.10523</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.000964</t>
+          <t>0.000288</t>
         </is>
       </c>
     </row>
@@ -773,27 +777,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>b6,b3,b5,b4,b2,b1</t>
+          <t>b6,b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.0784549</t>
+          <t>0.0296866</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.001037</t>
+          <t>0.000614</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10.1046</t>
+          <t>0.017674</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -803,12 +807,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>10.229</t>
+          <t>0.087423</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.000543</t>
+          <t>0.000267</t>
         </is>
       </c>
     </row>
@@ -836,17 +840,17 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.0366678</t>
+          <t>0.0263907</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.000561</t>
+          <t>0.000673</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4.42878</t>
+          <t>0.075899</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -856,12 +860,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>4.48519</t>
+          <t>0.133</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.004369</t>
+          <t>0.001139</t>
         </is>
       </c>
     </row>
@@ -893,17 +897,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.0688064</t>
+          <t>0.0298517</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.000658</t>
+          <t>0.000639</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>8.46499</t>
+          <t>0.02716</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -913,12 +917,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8.57771</t>
+          <t>0.097728</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.000335</t>
+          <t>0.000321</t>
         </is>
       </c>
     </row>
@@ -935,28 +939,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.0400666</t>
+          <t>0.0301956</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.000538</t>
+          <t>0.000641</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4.73866</t>
+          <t>0.035116</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -966,12 +974,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>4.79655</t>
+          <t>0.105431</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.002211</t>
+          <t>0.000542</t>
         </is>
       </c>
     </row>
@@ -999,17 +1007,17 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.0386556</t>
+          <t>0.0221877</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.000473</t>
+          <t>0.000503</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4.99551</t>
+          <t>0.011523</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1019,12 +1027,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>5.05177</t>
+          <t>0.055508</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.001924</t>
+          <t>0.000728</t>
         </is>
       </c>
     </row>
@@ -1052,17 +1060,17 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.0390118</t>
+          <t>0.0223758</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.000448</t>
+          <t>0.00054</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5.18991</t>
+          <t>0.139844</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1072,12 +1080,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>5.24571</t>
+          <t>0.184615</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.001562</t>
+          <t>0.000648</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1113,17 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.0388477</t>
+          <t>0.0223148</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.000483</t>
+          <t>0.000522</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4.78264</t>
+          <t>0.015985</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1125,12 +1133,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>4.83915</t>
+          <t>0.061096</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.001707</t>
+          <t>0.001124</t>
         </is>
       </c>
     </row>
@@ -1152,27 +1160,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>b6,b5,b4,b2,b3,b1</t>
+          <t>b6,b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.0639931</t>
+          <t>0.0290207</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.001159</t>
+          <t>0.000631</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>7.21371</t>
+          <t>0.047065</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1182,12 +1190,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>7.32621</t>
+          <t>0.119856</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.000646</t>
+          <t>0.000558</t>
         </is>
       </c>
     </row>
@@ -1214,22 +1222,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>b6,b3,b5,b4,b2,b1</t>
+          <t>b6,b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.0720626</t>
+          <t>0.0293646</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.00085</t>
+          <t>0.000591</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>9.10785</t>
+          <t>0.037227</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1239,12 +1247,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>9.22642</t>
+          <t>0.108721</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.000481</t>
+          <t>0.000477</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1274,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1276,17 +1284,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.0717545</t>
+          <t>0.0299126</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.000638</t>
+          <t>0.000617</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>9.73435</t>
+          <t>0.084313</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1296,12 +1304,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>9.85127</t>
+          <t>0.156922</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.000713</t>
+          <t>0.000436</t>
         </is>
       </c>
     </row>
@@ -1318,28 +1326,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b1,b2</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.0368228</t>
+          <t>0.0294997</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.00054</t>
+          <t>0.000644</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>4.29641</t>
+          <t>0.046162</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1349,12 +1361,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>4.35148</t>
+          <t>0.118505</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.002943</t>
+          <t>0.000522</t>
         </is>
       </c>
     </row>
@@ -1381,22 +1393,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>b6,b5,b4,b2,b1,b3</t>
+          <t>b6,b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.0614957</t>
+          <t>0.0294428</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.001315</t>
+          <t>0.000587</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>7.608</t>
+          <t>0.012434</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1406,12 +1418,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>7.71367</t>
+          <t>0.082238</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.00051</t>
+          <t>0.000341</t>
         </is>
       </c>
     </row>
@@ -1428,28 +1440,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.0751113</t>
+          <t>0.0293546</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.001101</t>
+          <t>0.000609</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>9.37829</t>
+          <t>0.041807</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1459,12 +1475,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>9.4992</t>
+          <t>0.110476</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.000742</t>
+          <t>0.000279</t>
         </is>
       </c>
     </row>
@@ -1481,32 +1497,28 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>b6,b5,b3,b4,b2,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.0663345</t>
+          <t>0.0260887</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.000631</t>
+          <t>0.000586</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>7.37397</t>
+          <t>0.010094</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1516,12 +1528,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>7.48579</t>
+          <t>0.065279</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.000392</t>
+          <t>0.000933</t>
         </is>
       </c>
     </row>
@@ -1538,32 +1550,28 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>b6,b3,b5,b4,b2,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.0833143</t>
+          <t>0.0302896</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.000669</t>
+          <t>0.00062</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>11.1701</t>
+          <t>0.025389</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1573,12 +1581,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>11.3002</t>
+          <t>0.09785</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.000582</t>
+          <t>0.000424</t>
         </is>
       </c>
     </row>
@@ -1595,28 +1603,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.0368728</t>
+          <t>0.0392576</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.000529</t>
+          <t>0.000703</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>4.20991</t>
+          <t>0.044082</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1626,12 +1638,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>4.26374</t>
+          <t>0.129382</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.001896</t>
+          <t>0.000569</t>
         </is>
       </c>
     </row>
@@ -1659,17 +1671,17 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.0366778</t>
+          <t>0.0285067</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.00053</t>
+          <t>0.000635</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>4.45103</t>
+          <t>0.118321</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1679,12 +1691,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>4.50545</t>
+          <t>0.18939</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.001987</t>
+          <t>0.000433</t>
         </is>
       </c>
     </row>
@@ -1712,17 +1724,17 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.0369678</t>
+          <t>0.0221897</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.000447</t>
+          <t>0.000543</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>4.56723</t>
+          <t>0.138279</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1732,12 +1744,12 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>4.62103</t>
+          <t>0.18249</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.001606</t>
+          <t>0.000674</t>
         </is>
       </c>
     </row>
@@ -1769,17 +1781,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.0593008</t>
+          <t>0.0280228</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.000644</t>
+          <t>0.000586</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>6.88217</t>
+          <t>0.023887</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1789,12 +1801,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>6.98778</t>
+          <t>0.094681</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.000328</t>
+          <t>0.000337</t>
         </is>
       </c>
     </row>
@@ -1826,17 +1838,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.0608737</t>
+          <t>0.0286697</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.000658</t>
+          <t>0.000596</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>7.42846</t>
+          <t>0.019514</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1846,12 +1858,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>7.53343</t>
+          <t>0.089758</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.00029</t>
+          <t>0.000302</t>
         </is>
       </c>
     </row>
@@ -1883,17 +1895,17 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.0824946</t>
+          <t>0.0299145</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.000845</t>
+          <t>0.000598</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>9.55033</t>
+          <t>0.035891</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1903,12 +1915,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>9.67922</t>
+          <t>0.107801</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.000874</t>
+          <t>0.000541</t>
         </is>
       </c>
     </row>
@@ -1925,28 +1937,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.0716506</t>
+          <t>0.0293597</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.001093</t>
+          <t>0.00064</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>8.34507</t>
+          <t>0.046788</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1956,12 +1972,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>8.46395</t>
+          <t>0.117302</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.000716</t>
+          <t>0.000315</t>
         </is>
       </c>
     </row>
@@ -1988,22 +2004,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>b6,b3,b5,b4,b2,b1</t>
+          <t>b6,b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.0727835</t>
+          <t>0.0292356</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.000791</t>
+          <t>0.000596</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>9.4488</t>
+          <t>0.028163</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2013,12 +2029,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>9.56575</t>
+          <t>0.098077</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.00052</t>
+          <t>0.000474</t>
         </is>
       </c>
     </row>
@@ -2046,17 +2062,17 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.035033</t>
+          <t>0.0214578</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.000429</t>
+          <t>0.000538</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>3.98979</t>
+          <t>0.041039</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2066,12 +2082,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>4.04061</t>
+          <t>0.084618</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.000927</t>
+          <t>0.000891</t>
         </is>
       </c>
     </row>
@@ -2099,17 +2115,17 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.0390667</t>
+          <t>0.0217947</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.000537</t>
+          <t>0.000575</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>4.73924</t>
+          <t>0.01859</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2119,12 +2135,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>4.79638</t>
+          <t>0.061975</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.002984</t>
+          <t>0.00127</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2162,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2156,17 +2172,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.0702275</t>
+          <t>0.0296906</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.000664</t>
+          <t>0.000675</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>8.14526</t>
+          <t>0.049868</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2176,12 +2192,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>8.26104</t>
+          <t>0.120905</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.000479</t>
+          <t>0.000572</t>
         </is>
       </c>
     </row>
@@ -2209,17 +2225,17 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.0383227</t>
+          <t>0.0222858</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.000499</t>
+          <t>0.000594</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>4.64193</t>
+          <t>0.107694</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2229,12 +2245,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>4.69876</t>
+          <t>0.152409</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.002955</t>
+          <t>0.000921</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2272,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2266,17 +2282,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.0734186</t>
+          <t>0.0288046</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.001409</t>
+          <t>0.000573</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>8.79253</t>
+          <t>0.029059</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2286,12 +2302,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>8.91201</t>
+          <t>0.098794</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.000637</t>
+          <t>0.000272</t>
         </is>
       </c>
     </row>
@@ -2323,17 +2339,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.0834642</t>
+          <t>0.0287156</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.000992</t>
+          <t>0.000594</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>9.9342</t>
+          <t>0.043061</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2343,12 +2359,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>10.064</t>
+          <t>0.112144</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.000754</t>
+          <t>0.000301</t>
         </is>
       </c>
     </row>
@@ -2380,17 +2396,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.0726489</t>
+          <t>0.0295576</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.001005</t>
+          <t>0.000617</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>8.10122</t>
+          <t>0.035998</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2400,12 +2416,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>8.22142</t>
+          <t>0.106953</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.000805</t>
+          <t>0.000325</t>
         </is>
       </c>
     </row>
@@ -2433,17 +2449,17 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.0833411</t>
+          <t>0.0171549</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.000923</t>
+          <t>0.000502</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>9.96659</t>
+          <t>0.094861</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2453,12 +2469,12 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>10.0952</t>
+          <t>0.127458</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.000556</t>
+          <t>0.001787</t>
         </is>
       </c>
     </row>
@@ -2490,17 +2506,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.0592429</t>
+          <t>0.0284537</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.000624</t>
+          <t>0.000605</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>7.23781</t>
+          <t>0.026666</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2510,12 +2526,12 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>7.34211</t>
+          <t>0.097095</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.000327</t>
+          <t>0.000318</t>
         </is>
       </c>
     </row>
@@ -2547,17 +2563,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.0815744</t>
+          <t>0.0304206</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.001092</t>
+          <t>0.000621</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>10.1016</t>
+          <t>0.04164</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2567,12 +2583,12 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>10.2322</t>
+          <t>0.115564</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0.000638</t>
+          <t>0.000334</t>
         </is>
       </c>
     </row>
@@ -2600,17 +2616,17 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.0749766</t>
+          <t>0.0294106</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.000858</t>
+          <t>0.000619</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>9.07667</t>
+          <t>0.05304</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2620,12 +2636,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>9.19676</t>
+          <t>0.122848</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.000768</t>
+          <t>0.000542</t>
         </is>
       </c>
     </row>
@@ -2657,17 +2673,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.0727248</t>
+          <t>0.0294486</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.000896</t>
+          <t>0.000604</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>9.14296</t>
+          <t>0.041496</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2677,12 +2693,12 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>9.26166</t>
+          <t>0.111662</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.000763</t>
+          <t>0.000335</t>
         </is>
       </c>
     </row>
@@ -2699,28 +2715,32 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.0373508</t>
+          <t>0.0292916</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.000409</t>
+          <t>0.000581</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>4.54189</t>
+          <t>0.03548</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2730,12 +2750,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>4.5957</t>
+          <t>0.109145</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.000962</t>
+          <t>0.000501</t>
         </is>
       </c>
     </row>
@@ -2752,32 +2772,28 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>b6,b3,b5,b4,b2,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.0785591</t>
+          <t>0.0227757</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.000879</t>
+          <t>0.000526</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>10.136</t>
+          <t>0.139081</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2787,12 +2803,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>10.2583</t>
+          <t>0.183207</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.000424</t>
+          <t>0.000647</t>
         </is>
       </c>
     </row>
@@ -2809,28 +2825,32 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.0719665</t>
+          <t>0.0294306</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.001074</t>
+          <t>0.000627</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>8.28163</t>
+          <t>0.043516</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2840,12 +2860,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>8.40121</t>
+          <t>0.115183</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0.000759</t>
+          <t>0.000314</t>
         </is>
       </c>
     </row>
@@ -2862,28 +2882,32 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.0694095</t>
+          <t>0.0295976</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.001054</t>
+          <t>0.000633</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>8.2036</t>
+          <t>0.023664</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2893,12 +2917,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>8.31881</t>
+          <t>0.093402</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.000715</t>
+          <t>0.000279</t>
         </is>
       </c>
     </row>
@@ -2915,28 +2939,32 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.0719406</t>
+          <t>0.0289007</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.000856</t>
+          <t>0.00063</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>8.18762</t>
+          <t>0.039368</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2946,12 +2974,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>8.31096</t>
+          <t>0.11447</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0.000574</t>
+          <t>0.000334</t>
         </is>
       </c>
     </row>
@@ -2983,17 +3011,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.0699476</t>
+          <t>0.0296126</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.000864</t>
+          <t>0.000617</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>8.61834</t>
+          <t>0.05829</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3003,12 +3031,12 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>8.73734</t>
+          <t>0.131712</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.000816</t>
+          <t>0.000386</t>
         </is>
       </c>
     </row>
@@ -3040,17 +3068,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.0745298</t>
+          <t>0.0301796</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.000904</t>
+          <t>0.000623</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>9.48375</t>
+          <t>0.045824</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3060,12 +3088,12 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>9.60431</t>
+          <t>0.116046</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0.000842</t>
+          <t>0.000508</t>
         </is>
       </c>
     </row>
@@ -3097,17 +3125,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.076425</t>
+          <t>0.0293636</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.001215</t>
+          <t>0.000648</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>9.47637</t>
+          <t>0.036711</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3117,12 +3145,12 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>9.59938</t>
+          <t>0.107394</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0.000519</t>
+          <t>0.000333</t>
         </is>
       </c>
     </row>
@@ -3144,7 +3172,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3154,17 +3182,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.0706465</t>
+          <t>0.0304146</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.000875</t>
+          <t>0.000796</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>9.14964</t>
+          <t>0.034539</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3174,12 +3202,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>9.2634</t>
+          <t>0.105693</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0.000603</t>
+          <t>0.000348</t>
         </is>
       </c>
     </row>
@@ -3196,28 +3224,32 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.0699664</t>
+          <t>0.0290717</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.000885</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>8.61744</t>
+          <t>0.039099</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3227,12 +3259,12 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>8.73767</t>
+          <t>0.112497</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0.000722</t>
+          <t>0.000311</t>
         </is>
       </c>
     </row>
@@ -3249,28 +3281,32 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.063437</t>
+          <t>0.0292076</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.000903</t>
+          <t>0.00065</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>7.41505</t>
+          <t>0.043096</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3280,12 +3316,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>7.52165</t>
+          <t>0.110493</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0.000533</t>
+          <t>0.000503</t>
         </is>
       </c>
     </row>
@@ -3302,28 +3338,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.0700052</t>
+          <t>0.0293666</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.001505</t>
+          <t>0.000586</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>9.14591</t>
+          <t>0.041342</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3333,12 +3373,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>9.26073</t>
+          <t>0.110629</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0.000557</t>
+          <t>0.00032</t>
         </is>
       </c>
     </row>
@@ -3366,17 +3406,17 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.0339569</t>
+          <t>0.0215028</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.00039</t>
+          <t>0.000501</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>4.0913</t>
+          <t>0.079765</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3386,12 +3426,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>4.14082</t>
+          <t>0.123366</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.000634</t>
+          <t>0.000721</t>
         </is>
       </c>
     </row>
@@ -3419,17 +3459,17 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.07722</t>
+          <t>0.0275847</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.00092</t>
+          <t>0.000638</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>9.59699</t>
+          <t>0.076442</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3439,12 +3479,12 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>9.72206</t>
+          <t>0.134432</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.000604</t>
+          <t>0.001041</t>
         </is>
       </c>
     </row>
@@ -3476,17 +3516,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0.075184</t>
+          <t>0.0295536</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.000868</t>
+          <t>0.000639</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>9.62516</t>
+          <t>0.043878</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3496,12 +3536,12 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>9.74654</t>
+          <t>0.115404</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.000812</t>
+          <t>0.000537</t>
         </is>
       </c>
     </row>
@@ -3518,32 +3558,28 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>b6,b5,b3,b4,b2,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0.060791</t>
+          <t>0.0286467</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.001187</t>
+          <t>0.000592</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>6.87993</t>
+          <t>0.025008</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3553,12 +3589,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>6.9841</t>
+          <t>0.094102</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.000525</t>
+          <t>0.000376</t>
         </is>
       </c>
     </row>
@@ -3575,28 +3611,32 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0.0739808</t>
+          <t>0.0292266</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.000863</t>
+          <t>0.000621</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>9.1173</t>
+          <t>0.036718</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3606,12 +3646,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>9.23621</t>
+          <t>0.107111</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>0.000588</t>
+          <t>0.000533</t>
         </is>
       </c>
     </row>
@@ -3639,17 +3679,17 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.06093</t>
+          <t>0.0257827</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.000576</t>
+          <t>0.000547</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>7.76974</t>
+          <t>0.010777</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3659,12 +3699,12 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>7.86172</t>
+          <t>0.06511</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.00191</t>
+          <t>0.000905</t>
         </is>
       </c>
     </row>
@@ -3681,32 +3721,28 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>b6,b3,b5,b4,b2,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.0756547</t>
+          <t>0.0220458</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.000792</t>
+          <t>0.000543</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>9.89273</t>
+          <t>0.072512</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3716,12 +3752,12 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>10.0119</t>
+          <t>0.116092</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0.000469</t>
+          <t>0.001027</t>
         </is>
       </c>
     </row>
@@ -3753,17 +3789,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.0559602</t>
+          <t>0.0278487</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.000616</t>
+          <t>0.000582</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>6.93845</t>
+          <t>0.021105</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3773,12 +3809,12 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>7.03653</t>
+          <t>0.089439</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0.000317</t>
+          <t>0.000324</t>
         </is>
       </c>
     </row>
@@ -3795,28 +3831,32 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0.0703554</t>
+          <t>0.0296036</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.00103</t>
+          <t>0.000623</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>8.70544</t>
+          <t>0.040523</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3826,12 +3866,12 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>8.82373</t>
+          <t>0.111849</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0.001508</t>
+          <t>0.000309</t>
         </is>
       </c>
     </row>
@@ -3848,32 +3888,28 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>b6,b3,b5,b4,b2,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0.0669744</t>
+          <t>0.0268727</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.000783</t>
+          <t>0.000581</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>8.35182</t>
+          <t>0.059172</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3883,12 +3919,12 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>8.46247</t>
+          <t>0.121455</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.000475</t>
+          <t>0.000211</t>
         </is>
       </c>
     </row>
@@ -3905,28 +3941,32 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0.0354769</t>
+          <t>0.0290506</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.000517</t>
+          <t>0.000658</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>4.32202</t>
+          <t>0.030739</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3936,12 +3976,12 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>4.37528</t>
+          <t>0.101256</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.002789</t>
+          <t>0.00055</t>
         </is>
       </c>
     </row>
@@ -3973,17 +4013,17 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0.0745917</t>
+          <t>0.0291246</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.00083</t>
+          <t>0.000642</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>9.42205</t>
+          <t>0.0433</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3993,12 +4033,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>9.54245</t>
+          <t>0.113861</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0.000808</t>
+          <t>0.000516</t>
         </is>
       </c>
     </row>
@@ -4026,17 +4066,17 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.0714645</t>
+          <t>0.0266617</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.000858</t>
+          <t>0.000743</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>8.46134</t>
+          <t>0.032507</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4046,12 +4086,12 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>8.578</t>
+          <t>0.088669</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.000601</t>
+          <t>0.001082</t>
         </is>
       </c>
     </row>
@@ -4068,28 +4108,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.0656831</t>
+          <t>0.0295336</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.001046</t>
+          <t>0.000613</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>7.70965</t>
+          <t>0.008109</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4099,12 +4143,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>7.82062</t>
+          <t>0.077806</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.000702</t>
+          <t>0.000294</t>
         </is>
       </c>
     </row>
@@ -4136,17 +4180,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0.0675402</t>
+          <t>0.0295446</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.000626</t>
+          <t>0.000632</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>8.96095</t>
+          <t>0.04143</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4156,12 +4200,12 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>9.07043</t>
+          <t>0.110565</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.000361</t>
+          <t>0.000486</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4227,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4193,17 +4237,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.0701356</t>
+          <t>0.0293166</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.000816</t>
+          <t>0.000649</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>8.02069</t>
+          <t>0.040375</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4213,12 +4257,12 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>8.13768</t>
+          <t>0.11305</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0.000437</t>
+          <t>0.000307</t>
         </is>
       </c>
     </row>
@@ -4235,28 +4279,32 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>b6,b5,b4,b2,b1,b3</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0.0669371</t>
+          <t>0.0286787</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.001192</t>
+          <t>0.000612</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>7.95288</t>
+          <t>0.044918</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4266,12 +4314,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>8.06497</t>
+          <t>0.114698</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.000576</t>
+          <t>0.000365</t>
         </is>
       </c>
     </row>
@@ -4288,28 +4336,32 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0.0696793</t>
+          <t>0.0299236</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.000838</t>
+          <t>0.000633</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>8.18042</t>
+          <t>0.034061</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4319,12 +4371,12 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>8.29648</t>
+          <t>0.106237</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>0.000532</t>
+          <t>0.000526</t>
         </is>
       </c>
     </row>
@@ -4351,22 +4403,22 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>b6,b3,b5,b4,b2,b1</t>
+          <t>b6,b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>0.0653782</t>
+          <t>0.0292136</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0.001132</t>
+          <t>0.000608</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>8.66186</t>
+          <t>0.02745</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4376,12 +4428,12 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>8.77094</t>
+          <t>0.097173</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>0.000503</t>
+          <t>0.000476</t>
         </is>
       </c>
     </row>
@@ -4403,27 +4455,27 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>b6,b3,b5,b4,b2,b1</t>
+          <t>b6,b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.0716247</t>
+          <t>0.0297246</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.000983</t>
+          <t>0.000611</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>9.32131</t>
+          <t>0.028626</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4433,12 +4485,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>9.43552</t>
+          <t>0.09976</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0.000416</t>
+          <t>0.000503</t>
         </is>
       </c>
     </row>
@@ -4465,22 +4517,22 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>b6,b3,b5,b4,b2,b1</t>
+          <t>b6,b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0.0741956</t>
+          <t>0.0293306</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.000968</t>
+          <t>0.000592</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>9.19361</t>
+          <t>0.040424</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4490,12 +4542,12 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>9.31323</t>
+          <t>0.114313</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>0.00068</t>
+          <t>0.000487</t>
         </is>
       </c>
     </row>
@@ -4517,7 +4569,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4527,17 +4579,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0.0669583</t>
+          <t>0.0283276</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0.000795</t>
+          <t>0.000593</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>8.68254</t>
+          <t>0.053508</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4547,12 +4599,12 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>8.78986</t>
+          <t>0.119738</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.000577</t>
+          <t>0.000442</t>
         </is>
       </c>
     </row>
@@ -4569,28 +4621,32 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0.060678</t>
+          <t>0.0290636</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.000832</t>
+          <t>0.000628</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>6.84119</t>
+          <t>0.038336</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4600,12 +4656,12 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>6.94533</t>
+          <t>0.108214</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0.000606</t>
+          <t>0.000527</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4683,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4637,17 +4693,17 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0.0734986</t>
+          <t>0.0292476</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.000814</t>
+          <t>0.000578</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>9.3354</t>
+          <t>0.036389</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4657,12 +4713,12 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>9.45411</t>
+          <t>0.107051</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.000404</t>
+          <t>0.000249</t>
         </is>
       </c>
     </row>
@@ -4679,28 +4735,32 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>0.0725566</t>
+          <t>0.0281586</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.001061</t>
+          <t>0.000635</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>8.77591</t>
+          <t>0.042071</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4710,12 +4770,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>8.89202</t>
+          <t>0.10797</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0.000708</t>
+          <t>0.000315</t>
         </is>
       </c>
     </row>
@@ -4732,28 +4792,32 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0.0704764</t>
+          <t>0.0291746</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.000904</t>
+          <t>0.000609</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>8.06614</t>
+          <t>0.030657</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4763,12 +4827,12 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>8.18372</t>
+          <t>0.102097</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>0.000557</t>
+          <t>0.000383</t>
         </is>
       </c>
     </row>
@@ -4785,28 +4849,32 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>0.0386227</t>
+          <t>0.0294146</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.000489</t>
+          <t>0.000623</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>4.44342</t>
+          <t>0.027263</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4816,12 +4884,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>4.49878</t>
+          <t>0.095223</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0.002022</t>
+          <t>0.00034</t>
         </is>
       </c>
     </row>
@@ -4838,28 +4906,32 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0.0830874</t>
+          <t>0.0287626</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.001241</t>
+          <t>0.000602</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>9.83839</t>
+          <t>0.078244</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4869,12 +4941,12 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>9.96747</t>
+          <t>0.146864</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0.000707</t>
+          <t>0.000505</t>
         </is>
       </c>
     </row>
@@ -4901,22 +4973,22 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>b6,b5,b3,b2,b4,b1</t>
+          <t>b6,b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.0722335</t>
+          <t>0.0298996</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.000871</t>
+          <t>0.000605</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>9.13366</t>
+          <t>0.022261</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4926,12 +4998,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>9.25335</t>
+          <t>0.093673</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0.000646</t>
+          <t>0.000289</t>
         </is>
       </c>
     </row>
@@ -4953,7 +5025,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4963,17 +5035,17 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.0752878</t>
+          <t>0.0293985</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.001921</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>9.78008</t>
+          <t>0.031547</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4983,12 +5055,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>9.90139</t>
+          <t>0.101066</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0.000923</t>
+          <t>0.000298</t>
         </is>
       </c>
     </row>
@@ -5005,28 +5077,32 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0.0359509</t>
+          <t>0.0297146</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.000494</t>
+          <t>0.000614</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>4.1175</t>
+          <t>0.036715</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5036,12 +5112,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>4.17098</t>
+          <t>0.109286</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0.002214</t>
+          <t>0.000347</t>
         </is>
       </c>
     </row>
@@ -5058,28 +5134,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>0.0770798</t>
+          <t>0.0334756</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>0.000888</t>
+          <t>0.00063</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>9.02528</t>
+          <t>0.037799</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5089,12 +5169,12 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>9.14839</t>
+          <t>0.116081</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>0.000554</t>
+          <t>0.000535</t>
         </is>
       </c>
     </row>
@@ -5111,28 +5191,32 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b1,b2</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0.0807081</t>
+          <t>0.0295106</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.000929</t>
+          <t>0.000631</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>10.1149</t>
+          <t>0.038916</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5142,12 +5226,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>10.2493</t>
+          <t>0.115034</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>0.000558</t>
+          <t>0.000518</t>
         </is>
       </c>
     </row>
@@ -5164,32 +5248,28 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>b6,b5,b3,b4,b2,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>0.0698085</t>
+          <t>0.0297067</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>0.000873</t>
+          <t>0.000621</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>8.44127</t>
+          <t>0.030324</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5199,12 +5279,12 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>8.55845</t>
+          <t>0.102692</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>0.000455</t>
+          <t>0.00036</t>
         </is>
       </c>
     </row>
@@ -5221,28 +5301,32 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0.0739177</t>
+          <t>0.0300306</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.000954</t>
+          <t>0.00068</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>8.60857</t>
+          <t>0.041954</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5252,12 +5336,12 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>8.73253</t>
+          <t>0.115513</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.000537</t>
+          <t>0.000491</t>
         </is>
       </c>
     </row>
@@ -5274,28 +5358,32 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b1,b2</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>0.0697846</t>
+          <t>0.0293666</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.000877</t>
+          <t>0.000652</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>8.13595</t>
+          <t>0.047796</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5305,12 +5393,12 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>8.25108</t>
+          <t>0.118064</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.000532</t>
+          <t>0.000485</t>
         </is>
       </c>
     </row>
@@ -5338,17 +5426,17 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0.0630469</t>
+          <t>0.0163829</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.000944</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>7.86798</t>
+          <t>0.081685</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5358,12 +5446,12 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>7.98609</t>
+          <t>0.114168</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.000916</t>
+          <t>0.001203</t>
         </is>
       </c>
     </row>
@@ -5380,28 +5468,32 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0.0847462</t>
+          <t>0.0289175</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.001059</t>
+          <t>0.000594</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>9.84679</t>
+          <t>0.021124</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5411,12 +5503,12 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>9.97795</t>
+          <t>0.089169</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0.000681</t>
+          <t>0.00028</t>
         </is>
       </c>
     </row>
@@ -5433,28 +5525,32 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>b6,b5,b3,b4,b2,b1</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0.0711475</t>
+          <t>0.0291157</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.001111</t>
+          <t>0.000606</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>8.79528</t>
+          <t>0.048251</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5464,12 +5560,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>8.91561</t>
+          <t>0.119077</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>0.000746</t>
+          <t>0.00032</t>
         </is>
       </c>
     </row>
@@ -5491,7 +5587,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5501,17 +5597,17 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0.077819</t>
+          <t>0.0298706</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.00093</t>
+          <t>0.000671</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>10.2387</t>
+          <t>0.066233</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5521,12 +5617,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>10.3633</t>
+          <t>0.13523</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0.000931</t>
+          <t>0.000282</t>
         </is>
       </c>
     </row>
@@ -5553,22 +5649,22 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>b6,b5,b3,b2,b4,b1</t>
+          <t>b6,b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>0.0716676</t>
+          <t>0.0297186</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>0.000922</t>
+          <t>0.000614</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>8.5355</t>
+          <t>0.015421</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5578,12 +5674,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>8.6554</t>
+          <t>0.087303</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0.00071</t>
+          <t>0.000283</t>
         </is>
       </c>
     </row>
@@ -5600,32 +5696,28 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>b6,b5,b3,b4,b2,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.0762211</t>
+          <t>0.0283696</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.000909</t>
+          <t>0.000644</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>9.20912</t>
+          <t>0.045864</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5635,12 +5727,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>9.33589</t>
+          <t>0.120181</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0.000718</t>
+          <t>0.000603</t>
         </is>
       </c>
     </row>
@@ -5667,22 +5759,22 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>b6,b5,b3,b4,b2,b1</t>
+          <t>b6,b5,b4,b2,b1,b3</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.0577688</t>
+          <t>0.0290098</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.00069</t>
+          <t>0.000607</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>6.66924</t>
+          <t>0.02132</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5692,12 +5784,12 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>6.77256</t>
+          <t>0.092752</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>0.000459</t>
+          <t>0.00036</t>
         </is>
       </c>
     </row>
@@ -5714,32 +5806,28 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>b6,b3,b5,b4,b2,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0.0681675</t>
+          <t>0.0224848</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.000639</t>
+          <t>0.000576</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>8.3519</t>
+          <t>0.174555</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5749,12 +5837,12 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>8.46531</t>
+          <t>0.218801</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>0.000332</t>
+          <t>0.000794</t>
         </is>
       </c>
     </row>
@@ -5776,27 +5864,27 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>b6,b3,b5,b4,b2,b1</t>
+          <t>b6,b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>0.0703028</t>
+          <t>0.0279705</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.00089</t>
+          <t>0.000551</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>9.22155</t>
+          <t>0.030685</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5806,12 +5894,12 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>9.33616</t>
+          <t>0.099486</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0.000442</t>
+          <t>0.000464</t>
         </is>
       </c>
     </row>
@@ -5839,17 +5927,17 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>0.035147</t>
+          <t>0.0228048</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>0.000431</t>
+          <t>0.000531</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>3.74994</t>
+          <t>0.008298</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5859,12 +5947,12 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>3.80095</t>
+          <t>0.051851</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>0.001444</t>
+          <t>0.000861</t>
         </is>
       </c>
     </row>
@@ -5891,22 +5979,22 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>b6,b3,b5,b4,b2,b1</t>
+          <t>b6,b5,b3,b4,b2,b1</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0.0750068</t>
+          <t>0.0294166</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>0.000697</t>
+          <t>0.000586</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>10.2347</t>
+          <t>0.018305</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5916,12 +6004,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>10.3538</t>
+          <t>0.087868</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>0.00042</t>
+          <t>0.000278</t>
         </is>
       </c>
     </row>
@@ -5938,32 +6026,28 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>b6,b5,b4,b3,b2,b1</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>0.0644981</t>
+          <t>0.0294507</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0.001816</t>
+          <t>0.000634</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>7.35922</t>
+          <t>0.094332</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5973,12 +6057,12 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>7.47227</t>
+          <t>0.167776</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0.001093</t>
+          <t>0.000743</t>
         </is>
       </c>
     </row>
